--- a/biology/Zoologie/Baviola/Baviola.xlsx
+++ b/biology/Zoologie/Baviola/Baviola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baviola est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baviola est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Seychelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Seychelles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 18.0, 12/03/2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 18.0, 12/03/2017) :
 Baviola braueri Simon, 1898
 Baviola luteosignata Wanless, 1984
 Baviola vanmoli Wanless, 1984</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1898 : Études arachnologiques. 29e Mémoire. XLVI. Arachnides recueillis en 1895 par M. le Dr A. Brauer (de l'Université de Marburg) aux îles Séchelles. Annales de la Société Entomologique de France, vol. 66, p. 370-388 (texte intégral).</t>
         </is>
